--- a/results/DRSA/FileVC_DRSA_DOMLEM_NEW0.xlsx
+++ b/results/DRSA/FileVC_DRSA_DOMLEM_NEW0.xlsx
@@ -404,22 +404,22 @@
     <t>Reguła 6</t>
   </si>
   <si>
-    <t>(attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a1', 'a23', 'a3', 'a13', 'a7']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (age &gt;=  32.0) &amp; (frozen_embryos &lt;=  4.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a2', 'a21', 'a3', 'a15', 'a22']</t>
+    <t>(attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a23', 'a7', 'a13', 'a1', 'a3']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  0.0) &amp; (age &gt;=  32.0) &amp; (frozen_embryos &lt;=  4.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a15', 'a21', 'a22', 'a2', 'a3']</t>
   </si>
   <si>
     <t>(sperm &gt;=  3.0) =&gt; (class &lt;= 1) ['a25', 'a22']</t>
   </si>
   <si>
-    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a14', 'a3']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  31.0) &amp; (attempts &lt;=  1.0) =&gt; (class &gt;= 2) ['a25', 'a9', 'a12', 'a11', 'a24']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &gt;=  8.0) &amp; (sperm &lt;=  1.0) =&gt; (class &gt;= 2) ['a16', 'a6']</t>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a3', 'a14']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  31.0) &amp; (attempts &lt;=  1.0) =&gt; (class &gt;= 2) ['a12', 'a25', 'a24', 'a11', 'a9']</t>
+  </si>
+  <si>
+    <t>(frozen_embryos &gt;=  8.0) &amp; (sperm &lt;=  1.0) =&gt; (class &gt;= 2) ['a6', 'a16']</t>
   </si>
   <si>
     <t>support</t>
@@ -431,16 +431,16 @@
     <t>coverage</t>
   </si>
   <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>not_classified</t>
+  </si>
+  <si>
     <t>f1_score</t>
   </si>
   <si>
     <t>accuracy</t>
-  </si>
-  <si>
-    <t>not_classified</t>
-  </si>
-  <si>
-    <t>correct</t>
   </si>
   <si>
     <t>Obiekt</t>
@@ -1660,7 +1660,7 @@
         <v>135</v>
       </c>
       <c r="B1">
-        <v>0.4952380952380952</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1668,7 +1668,7 @@
         <v>136</v>
       </c>
       <c r="B2">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1676,7 +1676,7 @@
         <v>137</v>
       </c>
       <c r="B3">
-        <v>0.44</v>
+        <v>0.4952380952380952</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1684,7 +1684,7 @@
         <v>138</v>
       </c>
       <c r="B4">
-        <v>0.7142857142857143</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/results/DRSA/FileVC_DRSA_DOMLEM_NEW0.xlsx
+++ b/results/DRSA/FileVC_DRSA_DOMLEM_NEW0.xlsx
@@ -404,22 +404,22 @@
     <t>Reguła 6</t>
   </si>
   <si>
-    <t>(attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a23', 'a7', 'a13', 'a1', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (age &gt;=  32.0) &amp; (frozen_embryos &lt;=  4.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a15', 'a21', 'a22', 'a2', 'a3']</t>
-  </si>
-  <si>
-    <t>(sperm &gt;=  3.0) =&gt; (class &lt;= 1) ['a25', 'a22']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a3', 'a14']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  31.0) &amp; (attempts &lt;=  1.0) =&gt; (class &gt;= 2) ['a12', 'a25', 'a24', 'a11', 'a9']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &gt;=  8.0) &amp; (sperm &lt;=  1.0) =&gt; (class &gt;= 2) ['a6', 'a16']</t>
+    <t>(attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a7', 'a23', 'a1', 'a13', 'a3']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  0.0) &amp; (age &gt;=  32.0) &amp; (frozen_embryos &lt;=  4.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a3', 'a15', 'a21', 'a22', 'a2']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  3.0) =&gt; (class &lt;= 1) ['a22', 'a25']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a14', 'a3']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  31.0) &amp; (attempts &lt;=  1.0) =&gt; (class &gt;= 2) ['a24', 'a11', 'a9', 'a25', 'a12']</t>
+  </si>
+  <si>
+    <t>(frozen_embryos &gt;=  8.0) &amp; (sperm &lt;=  1.0) =&gt; (class &gt;= 2) ['a16', 'a6']</t>
   </si>
   <si>
     <t>support</t>
@@ -431,16 +431,16 @@
     <t>coverage</t>
   </si>
   <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>not_classified</t>
+  </si>
+  <si>
     <t>correct</t>
   </si>
   <si>
-    <t>not_classified</t>
-  </si>
-  <si>
     <t>f1_score</t>
-  </si>
-  <si>
-    <t>accuracy</t>
   </si>
   <si>
     <t>Obiekt</t>
@@ -1660,7 +1660,7 @@
         <v>135</v>
       </c>
       <c r="B1">
-        <v>0.7142857142857143</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1676,7 +1676,7 @@
         <v>137</v>
       </c>
       <c r="B3">
-        <v>0.4952380952380952</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1684,7 +1684,7 @@
         <v>138</v>
       </c>
       <c r="B4">
-        <v>0.4</v>
+        <v>0.4952380952380952</v>
       </c>
     </row>
   </sheetData>
